--- a/tercer_parcial/Excel.xlsx
+++ b/tercer_parcial/Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeimy\OneDrive\Documentos\Tercer_Semestre\Estructuras1\1_REPOSITORIO\7999_Estructuras\tercer_parcial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00564791-52C2-4ACE-955C-8F2126509483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5975D9-9603-4C87-9AD6-D038A4186FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10935" yWindow="570" windowWidth="9555" windowHeight="9780" xr2:uid="{06622CCC-2736-4C15-9FFA-FD4EB54A33C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06622CCC-2736-4C15-9FFA-FD4EB54A33C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>resultado</t>
+  </si>
+  <si>
+    <t>12      64      36      88      60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                80      32      84      56      8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                28      100     52      4       76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                96      48      20      72      24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                44      16      68      40      92</t>
   </si>
 </sst>
 </file>
@@ -495,7 +510,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -503,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C0CD9B-ACA3-4F50-AF94-6E33BFFB29EE}">
-  <dimension ref="A1:W48"/>
+  <dimension ref="A1:AJ54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ13" sqref="AJ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,6 +537,7 @@
     <col min="15" max="15" width="11.42578125" style="2"/>
     <col min="16" max="16" width="5.42578125" customWidth="1"/>
     <col min="18" max="22" width="4.140625" customWidth="1"/>
+    <col min="28" max="36" width="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -595,24 +611,24 @@
       <c r="P2" s="1">
         <v>2</v>
       </c>
-      <c r="R2" s="4">
-        <v>19</v>
-      </c>
-      <c r="S2" s="5">
-        <v>21</v>
-      </c>
-      <c r="T2" s="5">
-        <v>3</v>
-      </c>
-      <c r="U2" s="5">
-        <v>10</v>
-      </c>
-      <c r="V2" s="5">
+      <c r="R2">
         <v>12</v>
+      </c>
+      <c r="S2">
+        <v>64</v>
+      </c>
+      <c r="T2">
+        <v>36</v>
+      </c>
+      <c r="U2">
+        <v>88</v>
+      </c>
+      <c r="V2">
+        <v>60</v>
       </c>
       <c r="W2">
         <f>SUM(R2:V2)</f>
-        <v>65</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -654,24 +670,24 @@
       <c r="P3" s="1">
         <v>3</v>
       </c>
-      <c r="R3" s="5">
-        <v>25</v>
-      </c>
-      <c r="S3" s="5">
-        <v>2</v>
-      </c>
-      <c r="T3" s="5">
-        <v>9</v>
-      </c>
-      <c r="U3" s="5">
-        <v>11</v>
-      </c>
-      <c r="V3" s="5">
-        <v>18</v>
+      <c r="R3">
+        <v>80</v>
+      </c>
+      <c r="S3">
+        <v>32</v>
+      </c>
+      <c r="T3">
+        <v>84</v>
+      </c>
+      <c r="U3">
+        <v>56</v>
+      </c>
+      <c r="V3">
+        <v>8</v>
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W6" si="2">SUM(R3:V3)</f>
-        <v>65</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -713,24 +729,24 @@
       <c r="P4" s="1">
         <v>4</v>
       </c>
-      <c r="R4" s="5">
-        <v>1</v>
-      </c>
-      <c r="S4" s="5">
-        <v>8</v>
-      </c>
-      <c r="T4" s="5">
-        <v>15</v>
-      </c>
-      <c r="U4" s="5">
-        <v>17</v>
-      </c>
-      <c r="V4" s="5">
-        <v>24</v>
+      <c r="R4">
+        <v>28</v>
+      </c>
+      <c r="S4">
+        <v>100</v>
+      </c>
+      <c r="T4">
+        <v>52</v>
+      </c>
+      <c r="U4">
+        <v>4</v>
+      </c>
+      <c r="V4">
+        <v>76</v>
       </c>
       <c r="W4">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -775,24 +791,24 @@
       <c r="P5" s="1">
         <v>5</v>
       </c>
-      <c r="R5" s="5">
-        <v>7</v>
-      </c>
-      <c r="S5" s="5">
-        <v>14</v>
-      </c>
-      <c r="T5" s="5">
-        <v>16</v>
-      </c>
-      <c r="U5" s="5">
-        <v>23</v>
-      </c>
-      <c r="V5" s="5">
-        <v>5</v>
+      <c r="R5">
+        <v>96</v>
+      </c>
+      <c r="S5">
+        <v>48</v>
+      </c>
+      <c r="T5">
+        <v>20</v>
+      </c>
+      <c r="U5">
+        <v>72</v>
+      </c>
+      <c r="V5">
+        <v>24</v>
       </c>
       <c r="W5">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -825,24 +841,24 @@
       <c r="P6" s="1">
         <v>6</v>
       </c>
-      <c r="R6" s="5">
-        <v>13</v>
-      </c>
-      <c r="S6" s="5">
-        <v>20</v>
-      </c>
-      <c r="T6" s="5">
-        <v>22</v>
-      </c>
-      <c r="U6" s="5">
-        <v>4</v>
-      </c>
-      <c r="V6" s="5">
-        <v>6</v>
+      <c r="R6">
+        <v>44</v>
+      </c>
+      <c r="S6">
+        <v>16</v>
+      </c>
+      <c r="T6">
+        <v>68</v>
+      </c>
+      <c r="U6">
+        <v>40</v>
+      </c>
+      <c r="V6">
+        <v>92</v>
       </c>
       <c r="W6">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -857,27 +873,27 @@
       </c>
       <c r="R7">
         <f>SUM(R2:R6)</f>
-        <v>65</v>
+        <v>260</v>
       </c>
       <c r="S7">
         <f t="shared" ref="S7:V7" si="5">SUM(S2:S6)</f>
-        <v>65</v>
+        <v>260</v>
       </c>
       <c r="T7">
         <f t="shared" si="5"/>
-        <v>65</v>
+        <v>260</v>
       </c>
       <c r="U7">
         <f t="shared" si="5"/>
-        <v>65</v>
+        <v>260</v>
       </c>
       <c r="V7">
         <f t="shared" si="5"/>
-        <v>65</v>
+        <v>260</v>
       </c>
       <c r="W7">
         <f>SUM(R2,S3,T4,U5,V6)</f>
-        <v>65</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -1038,7 +1054,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>143</v>
       </c>
@@ -1046,7 +1062,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>146</v>
       </c>
@@ -1054,7 +1070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>149</v>
       </c>
@@ -1062,22 +1078,28 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="P20" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="P21" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="AB21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="P22" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="AB22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>125</v>
       </c>
@@ -1091,8 +1113,11 @@
       <c r="P23" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="AB23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>130</v>
       </c>
@@ -1112,8 +1137,11 @@
       <c r="P24" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="AB24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>135</v>
       </c>
@@ -1133,8 +1161,11 @@
       <c r="P25" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="AB25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>140</v>
       </c>
@@ -1152,7 +1183,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>145</v>
       </c>
@@ -1172,25 +1203,100 @@
         <f>SUM(C24,D25,E26)</f>
         <v>435</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="AB27">
+        <v>12</v>
+      </c>
+      <c r="AC27">
+        <v>64</v>
+      </c>
+      <c r="AD27">
+        <v>36</v>
+      </c>
+      <c r="AE27">
+        <v>88</v>
+      </c>
+      <c r="AF27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="AB28">
+        <v>80</v>
+      </c>
+      <c r="AC28">
+        <v>32</v>
+      </c>
+      <c r="AD28">
+        <v>84</v>
+      </c>
+      <c r="AE28">
+        <v>56</v>
+      </c>
+      <c r="AF28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>155</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="AB29">
+        <v>28</v>
+      </c>
+      <c r="AC29">
+        <v>100</v>
+      </c>
+      <c r="AD29">
+        <v>52</v>
+      </c>
+      <c r="AE29">
+        <v>4</v>
+      </c>
+      <c r="AF29">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="AB30">
+        <v>96</v>
+      </c>
+      <c r="AC30">
+        <v>48</v>
+      </c>
+      <c r="AD30">
+        <v>20</v>
+      </c>
+      <c r="AE30">
+        <v>72</v>
+      </c>
+      <c r="AF30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>165</v>
+      </c>
+      <c r="AB31">
+        <v>44</v>
+      </c>
+      <c r="AC31">
+        <v>16</v>
+      </c>
+      <c r="AD31">
+        <v>68</v>
+      </c>
+      <c r="AE31">
+        <v>40</v>
+      </c>
+      <c r="AF31">
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1198,11 +1304,11 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="C35">
         <f>SUM(B35:B43)/3</f>
-        <v>225</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1210,7 +1316,7 @@
         <v>2</v>
       </c>
       <c r="B36">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1218,7 +1324,7 @@
         <v>3</v>
       </c>
       <c r="B37">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1226,7 +1332,7 @@
         <v>4</v>
       </c>
       <c r="B38">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1234,7 +1340,7 @@
         <v>5</v>
       </c>
       <c r="B39">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1242,7 +1348,7 @@
         <v>6</v>
       </c>
       <c r="B40">
-        <v>80</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1250,7 +1356,7 @@
         <v>7</v>
       </c>
       <c r="B41">
-        <v>85</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1258,7 +1364,7 @@
         <v>8</v>
       </c>
       <c r="B42">
-        <v>90</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1266,73 +1372,109 @@
         <v>9</v>
       </c>
       <c r="B43">
-        <v>95</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="D45">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E45">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="F45">
         <f>SUM(C45:E45)</f>
-        <v>225</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="D46">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="E46">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="F46">
         <f t="shared" ref="F46:F47" si="11">SUM(C46:E46)</f>
-        <v>225</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="D47">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="E47">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="F47">
         <f t="shared" si="11"/>
-        <v>225</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48">
         <f>SUM(C45:C47)</f>
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="D48">
         <f t="shared" ref="D48:E48" si="12">SUM(D45:D47)</f>
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="E48">
         <f t="shared" si="12"/>
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="F48">
         <f>SUM(C45,D46,E47)</f>
-        <v>225</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C52" s="10">
+        <v>2</v>
+      </c>
+      <c r="D52" s="11">
+        <v>9</v>
+      </c>
+      <c r="E52" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C53" s="11">
+        <v>7</v>
+      </c>
+      <c r="D53" s="11">
+        <v>5</v>
+      </c>
+      <c r="E53" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C54" s="11">
+        <v>6</v>
+      </c>
+      <c r="D54" s="11">
+        <v>1</v>
+      </c>
+      <c r="E54" s="11">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B35:B43">
+    <sortCondition ref="B35:B43"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/tercer_parcial/Excel.xlsx
+++ b/tercer_parcial/Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeimy\OneDrive\Documentos\Tercer_Semestre\Estructuras1\1_REPOSITORIO\7999_Estructuras\tercer_parcial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5975D9-9603-4C87-9AD6-D038A4186FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3F86BD-6CE8-46FB-B631-13E5BFFD980C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06622CCC-2736-4C15-9FFA-FD4EB54A33C4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>resultado</t>
   </si>
@@ -44,6 +44,51 @@
   <si>
     <t xml:space="preserve">                44      16      68      40      92</t>
   </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
 </sst>
 </file>
 
@@ -58,7 +103,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,6 +143,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -142,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -155,6 +212,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C0CD9B-ACA3-4F50-AF94-6E33BFFB29EE}">
-  <dimension ref="A1:AJ54"/>
+  <dimension ref="A1:AK64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AJ13" sqref="AJ13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,10 +597,11 @@
     <col min="15" max="15" width="11.42578125" style="2"/>
     <col min="16" max="16" width="5.42578125" customWidth="1"/>
     <col min="18" max="22" width="4.140625" customWidth="1"/>
-    <col min="28" max="36" width="5" customWidth="1"/>
+    <col min="27" max="27" width="4.7109375" customWidth="1"/>
+    <col min="28" max="37" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -571,8 +632,15 @@
         <f>SUM(P1:P25)/5</f>
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AJ1">
+        <v>1</v>
+      </c>
+      <c r="AK1">
+        <f>SUM(AJ1:AJ64)/8</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -630,8 +698,33 @@
         <f>SUM(R2:V2)</f>
         <v>260</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AA2" s="14">
+        <v>36</v>
+      </c>
+      <c r="AB2" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="13">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="13">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="13">
+        <v>5</v>
+      </c>
+      <c r="AF2" s="14">
+        <v>6</v>
+      </c>
+      <c r="AG2">
+        <f>SUM(AA2:AF2)</f>
+        <v>56</v>
+      </c>
+      <c r="AJ2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -689,8 +782,33 @@
         <f t="shared" ref="W3:W6" si="2">SUM(R3:V3)</f>
         <v>260</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AA3" s="13">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="14">
+        <v>29</v>
+      </c>
+      <c r="AC3" s="13">
+        <v>9</v>
+      </c>
+      <c r="AD3" s="13">
+        <v>10</v>
+      </c>
+      <c r="AE3" s="14">
+        <v>11</v>
+      </c>
+      <c r="AF3" s="13">
+        <v>12</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AG7" si="3">SUM(AA3:AF3)</f>
+        <v>78</v>
+      </c>
+      <c r="AJ3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -748,8 +866,33 @@
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AA4" s="13">
+        <v>13</v>
+      </c>
+      <c r="AB4" s="13">
+        <v>14</v>
+      </c>
+      <c r="AC4" s="14">
+        <v>22</v>
+      </c>
+      <c r="AD4" s="14">
+        <v>16</v>
+      </c>
+      <c r="AE4" s="13">
+        <v>17</v>
+      </c>
+      <c r="AF4" s="13">
+        <v>18</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="AJ4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -758,11 +901,11 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:E5" si="3">SUM(D2:D4)</f>
+        <f t="shared" ref="D5:E5" si="4">SUM(D2:D4)</f>
         <v>15</v>
       </c>
       <c r="E5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="F5">
@@ -810,8 +953,33 @@
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AA5" s="13">
+        <v>19</v>
+      </c>
+      <c r="AB5" s="13">
+        <v>20</v>
+      </c>
+      <c r="AC5" s="14">
+        <v>21</v>
+      </c>
+      <c r="AD5" s="14">
+        <v>15</v>
+      </c>
+      <c r="AE5" s="13">
+        <v>23</v>
+      </c>
+      <c r="AF5" s="13">
+        <v>24</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+      <c r="AJ5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -823,15 +991,15 @@
         <v>34</v>
       </c>
       <c r="K6">
-        <f t="shared" ref="K6:M6" si="4">SUM(K2:K5)</f>
+        <f t="shared" ref="K6:M6" si="5">SUM(K2:K5)</f>
         <v>34</v>
       </c>
       <c r="L6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="M6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="N6">
@@ -860,8 +1028,33 @@
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AA6" s="13">
+        <v>25</v>
+      </c>
+      <c r="AB6" s="14">
+        <v>26</v>
+      </c>
+      <c r="AC6" s="13">
+        <v>27</v>
+      </c>
+      <c r="AD6" s="13">
+        <v>28</v>
+      </c>
+      <c r="AE6" s="14">
+        <v>8</v>
+      </c>
+      <c r="AF6" s="13">
+        <v>30</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+      <c r="AJ6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -876,27 +1069,52 @@
         <v>260</v>
       </c>
       <c r="S7">
-        <f t="shared" ref="S7:V7" si="5">SUM(S2:S6)</f>
+        <f t="shared" ref="S7:V7" si="6">SUM(S2:S6)</f>
         <v>260</v>
       </c>
       <c r="T7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>260</v>
       </c>
       <c r="U7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>260</v>
       </c>
       <c r="V7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>260</v>
       </c>
       <c r="W7">
         <f>SUM(R2,S3,T4,U5,V6)</f>
         <v>260</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AA7" s="14">
+        <v>31</v>
+      </c>
+      <c r="AB7" s="13">
+        <v>32</v>
+      </c>
+      <c r="AC7" s="13">
+        <v>33</v>
+      </c>
+      <c r="AD7" s="13">
+        <v>34</v>
+      </c>
+      <c r="AE7" s="13">
+        <v>35</v>
+      </c>
+      <c r="AF7" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="3"/>
+        <v>166</v>
+      </c>
+      <c r="AJ7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -906,27 +1124,76 @@
       <c r="P8" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AA8">
+        <f>SUM(AA2:AA7)</f>
+        <v>131</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" ref="AB8:AF8" si="7">SUM(AB2:AB7)</f>
+        <v>123</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="7"/>
+        <v>115</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="7"/>
+        <v>107</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="7"/>
+        <v>99</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="7"/>
+        <v>91</v>
+      </c>
+      <c r="AG8">
+        <f>SUM(AA2,AB3,AC4,AD5,AE6,AF7)</f>
+        <v>111</v>
+      </c>
+      <c r="AJ8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>9</v>
       </c>
       <c r="H9" s="1">
         <v>9</v>
       </c>
+      <c r="J9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="12">
+        <v>33</v>
+      </c>
       <c r="P9" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AJ9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="H10" s="1">
         <v>10</v>
       </c>
+      <c r="J10" s="12">
+        <v>11</v>
+      </c>
+      <c r="K10" s="12">
+        <v>22</v>
+      </c>
       <c r="P10" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AJ10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>125</v>
       </c>
@@ -943,8 +1210,11 @@
       <c r="P11" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AJ11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>128</v>
       </c>
@@ -967,8 +1237,11 @@
       <c r="P12" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AJ12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>131</v>
       </c>
@@ -982,17 +1255,26 @@
         <v>143</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F14" si="6">SUM(C13:E13)</f>
+        <f t="shared" ref="F13:F14" si="8">SUM(C13:E13)</f>
         <v>411</v>
       </c>
       <c r="H13" s="1">
         <v>13</v>
       </c>
+      <c r="J13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="P13" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AJ13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>134</v>
       </c>
@@ -1006,17 +1288,26 @@
         <v>128</v>
       </c>
       <c r="F14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>411</v>
       </c>
       <c r="H14" s="1">
         <v>14</v>
       </c>
+      <c r="J14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="P14" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AJ14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>137</v>
       </c>
@@ -1025,11 +1316,11 @@
         <v>411</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:E15" si="7">SUM(D12:D14)</f>
+        <f t="shared" ref="D15:E15" si="9">SUM(D12:D14)</f>
         <v>411</v>
       </c>
       <c r="E15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>411</v>
       </c>
       <c r="F15">
@@ -1042,8 +1333,11 @@
       <c r="P15" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AJ15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>140</v>
       </c>
@@ -1053,53 +1347,102 @@
       <c r="P16" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AJ16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>143</v>
       </c>
+      <c r="J17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="12">
+        <v>55</v>
+      </c>
       <c r="P17" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AJ17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>146</v>
       </c>
+      <c r="J18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="P18" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AJ18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>149</v>
       </c>
+      <c r="J19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="P19" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AJ19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
       <c r="P20" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AJ20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
       <c r="P21" s="1">
         <v>21</v>
       </c>
       <c r="AB21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AJ21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="J22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="P22" s="1">
         <v>22</v>
       </c>
       <c r="AB22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AJ22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>125</v>
       </c>
@@ -1110,14 +1453,23 @@
         <f>SUM(A23:A31)/3</f>
         <v>435</v>
       </c>
+      <c r="J23" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="P23" s="1">
         <v>23</v>
       </c>
       <c r="AB23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AJ23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>130</v>
       </c>
@@ -1134,14 +1486,23 @@
         <f>SUM(C24:E24)</f>
         <v>435</v>
       </c>
+      <c r="J24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="P24" s="1">
         <v>24</v>
       </c>
       <c r="AB24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AJ24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>135</v>
       </c>
@@ -1155,17 +1516,22 @@
         <v>135</v>
       </c>
       <c r="F25">
-        <f t="shared" ref="F25:F26" si="8">SUM(C25:E25)</f>
+        <f t="shared" ref="F25:F26" si="10">SUM(C25:E25)</f>
         <v>435</v>
       </c>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
       <c r="P25" s="1">
         <v>25</v>
       </c>
       <c r="AB25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AJ25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>140</v>
       </c>
@@ -1179,11 +1545,16 @@
         <v>160</v>
       </c>
       <c r="F26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>435</v>
       </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="AJ26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>145</v>
       </c>
@@ -1192,17 +1563,19 @@
         <v>435</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="D27" si="9">SUM(D24:D26)</f>
+        <f t="shared" ref="D27" si="11">SUM(D24:D26)</f>
         <v>435</v>
       </c>
       <c r="E27">
-        <f t="shared" ref="E27" si="10">SUM(E24:E26)</f>
+        <f t="shared" ref="E27" si="12">SUM(E24:E26)</f>
         <v>435</v>
       </c>
       <c r="F27">
         <f>SUM(C24,D25,E26)</f>
         <v>435</v>
       </c>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
       <c r="AB27">
         <v>12</v>
       </c>
@@ -1218,11 +1591,16 @@
       <c r="AF27">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AJ27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>150</v>
       </c>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
       <c r="AB28">
         <v>80</v>
       </c>
@@ -1238,8 +1616,11 @@
       <c r="AF28">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AJ28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>155</v>
       </c>
@@ -1258,8 +1639,11 @@
       <c r="AF29">
         <v>76</v>
       </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AJ29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>160</v>
       </c>
@@ -1278,8 +1662,11 @@
       <c r="AF30">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AJ30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>165</v>
       </c>
@@ -1298,8 +1685,26 @@
       <c r="AF31">
         <v>92</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="AJ31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1310,72 +1715,364 @@
         <f>SUM(B35:B43)/3</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="AJ35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
       <c r="B36">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="AA36" s="14">
+        <v>64</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG36" s="1">
+        <v>7</v>
+      </c>
+      <c r="AH36" s="14">
+        <v>57</v>
+      </c>
+      <c r="AI36">
+        <f>SUM(AA36:AH36)</f>
+        <v>148</v>
+      </c>
+      <c r="AJ36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
       <c r="B37">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="AA37" s="1">
+        <v>9</v>
+      </c>
+      <c r="AB37" s="14">
+        <v>55</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>11</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>12</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>13</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>14</v>
+      </c>
+      <c r="AG37" s="14">
+        <v>50</v>
+      </c>
+      <c r="AH37" s="1">
+        <v>16</v>
+      </c>
+      <c r="AI37">
+        <f t="shared" ref="AI37:AI43" si="13">SUM(AA37:AH37)</f>
+        <v>180</v>
+      </c>
+      <c r="AJ37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4</v>
       </c>
       <c r="B38">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="AA38" s="1">
+        <v>17</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>18</v>
+      </c>
+      <c r="AC38" s="14">
+        <v>46</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>20</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>21</v>
+      </c>
+      <c r="AF38" s="14">
+        <v>43</v>
+      </c>
+      <c r="AG38" s="1">
+        <v>23</v>
+      </c>
+      <c r="AH38" s="1">
+        <v>24</v>
+      </c>
+      <c r="AI38">
+        <f t="shared" si="13"/>
+        <v>212</v>
+      </c>
+      <c r="AJ38">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
       <c r="B39">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="AA39" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD39" s="14">
+        <v>37</v>
+      </c>
+      <c r="AE39" s="14">
+        <v>36</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG39" s="1">
+        <v>31</v>
+      </c>
+      <c r="AH39" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI39">
+        <f t="shared" si="13"/>
+        <v>244</v>
+      </c>
+      <c r="AJ39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6</v>
       </c>
       <c r="B40">
         <v>24</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="AA40" s="1">
+        <v>33</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>34</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>35</v>
+      </c>
+      <c r="AD40" s="14">
+        <v>29</v>
+      </c>
+      <c r="AE40" s="14">
+        <v>28</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>38</v>
+      </c>
+      <c r="AG40" s="1">
+        <v>39</v>
+      </c>
+      <c r="AH40" s="1">
+        <v>40</v>
+      </c>
+      <c r="AI40">
+        <f t="shared" si="13"/>
+        <v>276</v>
+      </c>
+      <c r="AJ40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>7</v>
       </c>
       <c r="B41">
         <v>28</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="AA41" s="1">
+        <v>41</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>42</v>
+      </c>
+      <c r="AC41" s="14">
+        <v>22</v>
+      </c>
+      <c r="AD41" s="1">
+        <v>44</v>
+      </c>
+      <c r="AE41" s="1">
+        <v>45</v>
+      </c>
+      <c r="AF41" s="14">
+        <v>19</v>
+      </c>
+      <c r="AG41" s="1">
+        <v>47</v>
+      </c>
+      <c r="AH41" s="1">
+        <v>48</v>
+      </c>
+      <c r="AI41">
+        <f t="shared" si="13"/>
+        <v>308</v>
+      </c>
+      <c r="AJ41">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>8</v>
       </c>
       <c r="B42">
         <v>32</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="AA42" s="1">
+        <v>49</v>
+      </c>
+      <c r="AB42" s="14">
+        <v>15</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>51</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>52</v>
+      </c>
+      <c r="AE42" s="1">
+        <v>53</v>
+      </c>
+      <c r="AF42" s="1">
+        <v>54</v>
+      </c>
+      <c r="AG42" s="14">
+        <v>10</v>
+      </c>
+      <c r="AH42" s="1">
+        <v>56</v>
+      </c>
+      <c r="AI42">
+        <f t="shared" si="13"/>
+        <v>340</v>
+      </c>
+      <c r="AJ42">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>9</v>
       </c>
       <c r="B43">
         <v>36</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="AA43" s="14">
+        <v>8</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>58</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>59</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>60</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>61</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>62</v>
+      </c>
+      <c r="AG43" s="1">
+        <v>63</v>
+      </c>
+      <c r="AH43" s="14">
+        <v>1</v>
+      </c>
+      <c r="AI43">
+        <f t="shared" si="13"/>
+        <v>372</v>
+      </c>
+      <c r="AJ43">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AA44">
+        <f>SUM(AA36:AA43)</f>
+        <v>246</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" ref="AB44:AH44" si="14">SUM(AB36:AB43)</f>
+        <v>250</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" si="14"/>
+        <v>254</v>
+      </c>
+      <c r="AD44">
+        <f t="shared" si="14"/>
+        <v>258</v>
+      </c>
+      <c r="AE44">
+        <f t="shared" si="14"/>
+        <v>262</v>
+      </c>
+      <c r="AF44">
+        <f t="shared" si="14"/>
+        <v>266</v>
+      </c>
+      <c r="AG44">
+        <f t="shared" si="14"/>
+        <v>270</v>
+      </c>
+      <c r="AH44">
+        <f t="shared" si="14"/>
+        <v>274</v>
+      </c>
+      <c r="AI44">
+        <f>SUM(AA36,AB37,AC38,AD39,AE40,AF41,AG42,AH43)</f>
+        <v>260</v>
+      </c>
+      <c r="AJ44">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C45">
         <v>8</v>
       </c>
@@ -1389,8 +2086,11 @@
         <f>SUM(C45:E45)</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="AJ45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C46">
         <v>36</v>
       </c>
@@ -1401,11 +2101,14 @@
         <v>4</v>
       </c>
       <c r="F46">
-        <f t="shared" ref="F46:F47" si="11">SUM(C46:E46)</f>
+        <f t="shared" ref="F46:F47" si="15">SUM(C46:E46)</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="AJ46">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C47">
         <v>16</v>
       </c>
@@ -1416,29 +2119,170 @@
         <v>32</v>
       </c>
       <c r="F47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="AA47" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE47" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF47" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG47" s="1">
+        <v>7</v>
+      </c>
+      <c r="AH47" s="14">
+        <v>8</v>
+      </c>
+      <c r="AJ47">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C48">
         <f>SUM(C45:C47)</f>
         <v>60</v>
       </c>
       <c r="D48">
-        <f t="shared" ref="D48:E48" si="12">SUM(D45:D47)</f>
+        <f t="shared" ref="D48:E48" si="16">SUM(D45:D47)</f>
         <v>60</v>
       </c>
       <c r="E48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>60</v>
       </c>
       <c r="F48">
         <f>SUM(C45,D46,E47)</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="AA48" s="1">
+        <v>9</v>
+      </c>
+      <c r="AB48" s="14">
+        <v>10</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>11</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>12</v>
+      </c>
+      <c r="AE48" s="1">
+        <v>13</v>
+      </c>
+      <c r="AF48" s="1">
+        <v>14</v>
+      </c>
+      <c r="AG48" s="14">
+        <v>15</v>
+      </c>
+      <c r="AH48" s="1">
+        <v>16</v>
+      </c>
+      <c r="AJ48">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AA49" s="1">
+        <v>17</v>
+      </c>
+      <c r="AB49" s="1">
+        <v>18</v>
+      </c>
+      <c r="AC49" s="14">
+        <v>19</v>
+      </c>
+      <c r="AD49" s="1">
+        <v>20</v>
+      </c>
+      <c r="AE49" s="1">
+        <v>21</v>
+      </c>
+      <c r="AF49" s="14">
+        <v>22</v>
+      </c>
+      <c r="AG49" s="1">
+        <v>23</v>
+      </c>
+      <c r="AH49" s="1">
+        <v>24</v>
+      </c>
+      <c r="AJ49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AA50" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB50" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC50" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD50" s="14">
+        <v>28</v>
+      </c>
+      <c r="AE50" s="14">
+        <v>29</v>
+      </c>
+      <c r="AF50" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG50" s="1">
+        <v>31</v>
+      </c>
+      <c r="AH50" s="1">
+        <v>32</v>
+      </c>
+      <c r="AJ50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AA51" s="1">
+        <v>33</v>
+      </c>
+      <c r="AB51" s="1">
+        <v>34</v>
+      </c>
+      <c r="AC51" s="1">
+        <v>35</v>
+      </c>
+      <c r="AD51" s="14">
+        <v>36</v>
+      </c>
+      <c r="AE51" s="14">
+        <v>37</v>
+      </c>
+      <c r="AF51" s="1">
+        <v>38</v>
+      </c>
+      <c r="AG51" s="1">
+        <v>39</v>
+      </c>
+      <c r="AH51" s="1">
+        <v>40</v>
+      </c>
+      <c r="AJ51">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C52" s="10">
         <v>2</v>
       </c>
@@ -1448,8 +2292,35 @@
       <c r="E52" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="AA52" s="1">
+        <v>41</v>
+      </c>
+      <c r="AB52" s="1">
+        <v>42</v>
+      </c>
+      <c r="AC52" s="14">
+        <v>43</v>
+      </c>
+      <c r="AD52" s="1">
+        <v>44</v>
+      </c>
+      <c r="AE52" s="1">
+        <v>45</v>
+      </c>
+      <c r="AF52" s="14">
+        <v>46</v>
+      </c>
+      <c r="AG52" s="1">
+        <v>47</v>
+      </c>
+      <c r="AH52" s="1">
+        <v>48</v>
+      </c>
+      <c r="AJ52">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C53" s="11">
         <v>7</v>
       </c>
@@ -1459,8 +2330,35 @@
       <c r="E53" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="AA53" s="1">
+        <v>49</v>
+      </c>
+      <c r="AB53" s="14">
+        <v>50</v>
+      </c>
+      <c r="AC53" s="1">
+        <v>51</v>
+      </c>
+      <c r="AD53" s="1">
+        <v>52</v>
+      </c>
+      <c r="AE53" s="1">
+        <v>53</v>
+      </c>
+      <c r="AF53" s="1">
+        <v>54</v>
+      </c>
+      <c r="AG53" s="14">
+        <v>55</v>
+      </c>
+      <c r="AH53" s="1">
+        <v>56</v>
+      </c>
+      <c r="AJ53">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C54" s="11">
         <v>6</v>
       </c>
@@ -1469,6 +2367,83 @@
       </c>
       <c r="E54" s="11">
         <v>8</v>
+      </c>
+      <c r="AA54" s="14">
+        <v>57</v>
+      </c>
+      <c r="AB54" s="1">
+        <v>58</v>
+      </c>
+      <c r="AC54" s="1">
+        <v>59</v>
+      </c>
+      <c r="AD54" s="1">
+        <v>60</v>
+      </c>
+      <c r="AE54" s="1">
+        <v>61</v>
+      </c>
+      <c r="AF54" s="1">
+        <v>62</v>
+      </c>
+      <c r="AG54" s="1">
+        <v>63</v>
+      </c>
+      <c r="AH54" s="14">
+        <v>64</v>
+      </c>
+      <c r="AJ54">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AJ55">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AJ56">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AJ57">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AJ58">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AJ59">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AJ60">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AJ61">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AJ62">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AJ63">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AJ64">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1476,6 +2451,7 @@
     <sortCondition ref="B35:B43"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>